--- a/reakpitulasi sepatu.xlsx
+++ b/reakpitulasi sepatu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260985B9-28A2-4B46-94A2-EF9215A95883}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CF606D-E5C4-4024-9F09-CBF6C18342C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EF6ABA32-AE5C-427B-90BC-83E464540486}"/>
   </bookViews>
@@ -424,8 +424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2185F86E-03D9-49ED-A9E3-74526FBA83FD}">
   <dimension ref="F1:AB67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B30" workbookViewId="0">
-      <selection activeCell="N61" sqref="N61"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,28 +977,48 @@
       </c>
     </row>
     <row r="11" spans="6:28" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <f t="shared" ref="G11" si="5">SUM(G2:G10)</f>
+        <v>135</v>
+      </c>
+      <c r="H11">
+        <f t="shared" ref="H11" si="6">SUM(H2:H10)</f>
+        <v>62</v>
+      </c>
+      <c r="I11">
+        <f t="shared" ref="I11" si="7">SUM(I2:I10)</f>
+        <v>16</v>
+      </c>
+      <c r="J11">
+        <f t="shared" ref="J11" si="8">SUM(J2:J10)</f>
+        <v>34</v>
+      </c>
+      <c r="K11">
+        <f t="shared" ref="K11" si="9">SUM(K2:K10)</f>
+        <v>19</v>
+      </c>
       <c r="L11">
-        <f>SUM(L2:L10)</f>
+        <f t="shared" ref="L11:Q11" si="10">SUM(L2:L10)</f>
         <v>65</v>
       </c>
       <c r="M11">
-        <f>SUM(M2:M10)</f>
+        <f t="shared" si="10"/>
         <v>67</v>
       </c>
       <c r="N11">
-        <f>SUM(N2:N10)</f>
+        <f t="shared" si="10"/>
         <v>35</v>
       </c>
       <c r="O11">
-        <f>SUM(O2:O10)</f>
+        <f t="shared" si="10"/>
         <v>433</v>
       </c>
       <c r="P11">
-        <f>SUM(P2:P10)</f>
+        <f t="shared" si="10"/>
         <v>200</v>
       </c>
       <c r="Q11">
-        <f>SUM(Q2:Q10)</f>
+        <f t="shared" si="10"/>
         <v>233</v>
       </c>
       <c r="U11">
